--- a/media/user_data.xlsx
+++ b/media/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,9 +461,24 @@
           <t>test3</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>23</t>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">test </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">first one </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>

--- a/media/user_data.xlsx
+++ b/media/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,9 +476,24 @@
           <t xml:space="preserve">first one </t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>35</t>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sudhanshu </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kumar </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>

--- a/media/user_data.xlsx
+++ b/media/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +491,24 @@
           <t xml:space="preserve">Kumar </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25</t>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sudhanshu</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sharma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28</t>
         </is>
       </c>
     </row>
